--- a/data/Rivers/WhanganuiatDownstreamIntake_536c82ad59.xlsx
+++ b/data/Rivers/WhanganuiatDownstreamIntake_536c82ad59.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -647,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -678,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -709,7 +709,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -740,7 +740,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -802,7 +802,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -837,7 +837,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -868,7 +868,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -903,7 +903,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -938,7 +938,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -977,7 +977,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4310,7 +4310,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5023,7 +5023,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5190,7 +5190,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5299,7 +5299,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -5759,7 +5759,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6620,7 +6620,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -6982,7 +6982,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7091,7 +7091,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7301,7 +7301,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7375,7 +7375,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -7827,7 +7827,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8158,7 +8158,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8197,7 +8197,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8306,7 +8306,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8477,7 +8477,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -8652,7 +8652,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -8683,7 +8683,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -8722,7 +8722,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -8913,7 +8913,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9139,7 +9139,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9178,7 +9178,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9326,7 +9326,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -9482,7 +9482,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -9708,7 +9708,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -9786,7 +9786,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -9829,7 +9829,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -9903,7 +9903,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -9981,7 +9981,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -10059,7 +10059,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10102,7 +10102,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -10133,7 +10133,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -10238,7 +10238,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -10355,7 +10355,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -10394,7 +10394,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -10468,7 +10468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -10507,7 +10507,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -10542,7 +10542,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -10620,7 +10620,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -10698,7 +10698,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -10772,7 +10772,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11002,7 +11002,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -11150,7 +11150,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -11306,7 +11306,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -11380,7 +11380,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -11419,7 +11419,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -11454,7 +11454,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -11532,7 +11532,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -11571,7 +11571,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -11610,7 +11610,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -11653,7 +11653,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -11684,7 +11684,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -11723,7 +11723,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -11758,7 +11758,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -11836,7 +11836,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -11875,7 +11875,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -11914,7 +11914,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -12027,7 +12027,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -12062,7 +12062,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -12140,7 +12140,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -12179,7 +12179,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -12218,7 +12218,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -12261,7 +12261,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -12292,7 +12292,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -12331,7 +12331,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -12366,7 +12366,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -12522,7 +12522,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -12565,7 +12565,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -12596,7 +12596,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -12635,7 +12635,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -12670,7 +12670,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -12748,7 +12748,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -12787,7 +12787,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -12869,7 +12869,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -12939,7 +12939,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -13052,7 +13052,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -13134,7 +13134,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -13165,7 +13165,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -13204,7 +13204,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -13239,7 +13239,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
@@ -13317,7 +13317,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -13356,7 +13356,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -13395,7 +13395,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -13469,7 +13469,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -13508,7 +13508,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -13621,7 +13621,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -13699,7 +13699,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -13742,7 +13742,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -13773,7 +13773,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -13847,7 +13847,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -13925,7 +13925,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -13964,7 +13964,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -14046,7 +14046,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -14077,7 +14077,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -14116,7 +14116,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -14229,7 +14229,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -14268,7 +14268,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -14307,7 +14307,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -14350,7 +14350,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -14389,7 +14389,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -14502,7 +14502,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -14541,7 +14541,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -14580,7 +14580,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -14623,7 +14623,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -14654,7 +14654,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -14685,7 +14685,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -14724,7 +14724,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -14759,7 +14759,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -14837,7 +14837,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -14876,7 +14876,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -14915,7 +14915,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -14958,7 +14958,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -14997,7 +14997,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -15032,7 +15032,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -15110,7 +15110,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -15149,7 +15149,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -15188,7 +15188,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -15231,7 +15231,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -15262,7 +15262,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -15301,7 +15301,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -15336,7 +15336,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -15453,7 +15453,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -15535,7 +15535,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -15566,7 +15566,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -15605,7 +15605,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -15718,7 +15718,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -15757,7 +15757,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -15796,7 +15796,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -15839,7 +15839,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C415" s="2" t="n">
@@ -15870,7 +15870,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -15909,7 +15909,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -15944,7 +15944,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -16061,7 +16061,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -16100,7 +16100,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -16143,7 +16143,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -16174,7 +16174,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -16213,7 +16213,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -16248,7 +16248,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C426" s="2" t="n">
@@ -16326,7 +16326,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -16365,7 +16365,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -16404,7 +16404,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -16447,7 +16447,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -16478,7 +16478,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -16517,7 +16517,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -16630,7 +16630,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -16669,7 +16669,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -16708,7 +16708,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -16751,7 +16751,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -16782,7 +16782,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -16821,7 +16821,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -16934,7 +16934,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -16973,7 +16973,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -17012,7 +17012,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -17055,7 +17055,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -17086,7 +17086,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -17117,7 +17117,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C449" s="2" t="n">
@@ -17156,7 +17156,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
@@ -17191,7 +17191,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
@@ -17269,7 +17269,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -17308,7 +17308,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -17347,7 +17347,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -17390,7 +17390,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -17429,7 +17429,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -17542,7 +17542,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -17581,7 +17581,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -17620,7 +17620,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -17663,7 +17663,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
@@ -17694,7 +17694,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -17733,7 +17733,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
@@ -17768,7 +17768,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C466" s="2" t="n">
@@ -17846,7 +17846,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C468" s="2" t="n">
@@ -17885,7 +17885,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -17924,7 +17924,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C470" s="2" t="n">
@@ -17967,7 +17967,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -17998,7 +17998,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
@@ -18037,7 +18037,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
@@ -18072,7 +18072,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -18150,7 +18150,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">
@@ -18189,7 +18189,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C477" s="2" t="n">
@@ -18228,7 +18228,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C478" s="2" t="n">
@@ -18271,7 +18271,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C479" s="2" t="n">
@@ -18302,7 +18302,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C480" s="2" t="n">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C481" s="2" t="n">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
@@ -18454,7 +18454,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C484" s="2" t="n">
@@ -18493,7 +18493,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C485" s="2" t="n">
@@ -18532,7 +18532,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C486" s="2" t="n">
@@ -18575,7 +18575,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C487" s="2" t="n">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C488" s="2" t="n">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C489" s="2" t="n">
@@ -18680,7 +18680,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C490" s="2" t="n">
@@ -18758,7 +18758,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C492" s="2" t="n">
@@ -18797,7 +18797,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C493" s="2" t="n">
@@ -18836,7 +18836,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C494" s="2" t="n">
@@ -18879,7 +18879,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C495" s="2" t="n">
@@ -18910,7 +18910,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C496" s="2" t="n">
@@ -18949,7 +18949,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C497" s="2" t="n">
@@ -18984,7 +18984,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C498" s="2" t="n">
@@ -19062,7 +19062,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C500" s="2" t="n">
@@ -19101,7 +19101,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C501" s="2" t="n">
@@ -19140,7 +19140,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C502" s="2" t="n">
@@ -19183,7 +19183,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C503" s="2" t="n">
@@ -19214,7 +19214,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C504" s="2" t="n">
@@ -19253,7 +19253,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C505" s="2" t="n">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C506" s="2" t="n">
@@ -19366,7 +19366,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C508" s="2" t="n">
@@ -19405,7 +19405,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C509" s="2" t="n">
@@ -19444,7 +19444,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C510" s="2" t="n">
@@ -19487,7 +19487,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C511" s="2" t="n">
@@ -19518,7 +19518,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C512" s="2" t="n">
@@ -19557,7 +19557,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C513" s="2" t="n">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C514" s="2" t="n">
@@ -19670,7 +19670,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C516" s="2" t="n">
@@ -19709,7 +19709,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C517" s="2" t="n">
@@ -19748,7 +19748,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C518" s="2" t="n">
@@ -19791,7 +19791,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C519" s="2" t="n">
@@ -19822,7 +19822,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C520" s="2" t="n">
@@ -19861,7 +19861,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C521" s="2" t="n">
@@ -19896,7 +19896,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C522" s="2" t="n">
@@ -19974,7 +19974,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C524" s="2" t="n">
@@ -20013,7 +20013,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C525" s="2" t="n">
@@ -20052,7 +20052,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C526" s="2" t="n">
@@ -20095,7 +20095,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C527" s="2" t="n">
@@ -20126,7 +20126,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C528" s="2" t="n">
@@ -20165,7 +20165,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C529" s="2" t="n">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C530" s="2" t="n">
@@ -20278,7 +20278,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C532" s="2" t="n">
@@ -20317,7 +20317,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C533" s="2" t="n">
@@ -20356,7 +20356,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C534" s="2" t="n">
@@ -20399,7 +20399,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C535" s="2" t="n">
@@ -20430,7 +20430,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C536" s="2" t="n">
@@ -20469,7 +20469,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C537" s="2" t="n">
@@ -20504,7 +20504,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C538" s="2" t="n">
@@ -20582,7 +20582,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C540" s="2" t="n">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C541" s="2" t="n">
@@ -20660,7 +20660,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C542" s="2" t="n">
@@ -20703,7 +20703,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C543" s="2" t="n">
@@ -20734,7 +20734,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C544" s="2" t="n">
@@ -20777,7 +20777,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C545" s="2" t="n">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C546" s="2" t="n">
@@ -20894,7 +20894,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C548" s="2" t="n">
@@ -20937,7 +20937,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C549" s="2" t="n">
@@ -20980,7 +20980,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C550" s="2" t="n">
@@ -21023,7 +21023,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C551" s="2" t="n">
@@ -21054,7 +21054,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C552" s="2" t="n">
@@ -21097,7 +21097,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C553" s="2" t="n">
@@ -21136,7 +21136,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C554" s="2" t="n">
@@ -21214,7 +21214,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C556" s="2" t="n">
@@ -21257,7 +21257,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C557" s="2" t="n">
@@ -21300,7 +21300,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C558" s="2" t="n">
@@ -21343,7 +21343,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C559" s="2" t="n">
@@ -21374,7 +21374,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
@@ -21417,7 +21417,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C561" s="2" t="n">
@@ -21456,7 +21456,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C562" s="2" t="n">
@@ -21534,7 +21534,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C564" s="2" t="n">
@@ -21577,7 +21577,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C565" s="2" t="n">
@@ -21620,7 +21620,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C566" s="2" t="n">
@@ -21663,7 +21663,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C567" s="2" t="n">
@@ -21694,7 +21694,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C568" s="2" t="n">
@@ -21737,7 +21737,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C569" s="2" t="n">
@@ -21776,7 +21776,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C570" s="2" t="n">
@@ -21854,7 +21854,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C572" s="2" t="n">
@@ -21897,7 +21897,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C573" s="2" t="n">
@@ -21940,7 +21940,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C574" s="2" t="n">
@@ -21983,7 +21983,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C575" s="2" t="n">
@@ -22014,7 +22014,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C576" s="2" t="n">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C577" s="2" t="n">
@@ -22096,7 +22096,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C578" s="2" t="n">
@@ -22174,7 +22174,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C580" s="2" t="n">
@@ -22217,7 +22217,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C581" s="2" t="n">
@@ -22260,7 +22260,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C582" s="2" t="n">
@@ -22303,7 +22303,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C583" s="2" t="n">
@@ -22334,7 +22334,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C584" s="2" t="n">
@@ -22373,7 +22373,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C585" s="2" t="n">
@@ -22451,7 +22451,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C587" s="2" t="n">
@@ -22494,7 +22494,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C588" s="2" t="n">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C589" s="2" t="n">
@@ -22580,7 +22580,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C590" s="2" t="n">
@@ -22611,7 +22611,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C591" s="2" t="n">
@@ -22654,7 +22654,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C592" s="2" t="n">
@@ -22693,7 +22693,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C593" s="2" t="n">
@@ -22771,7 +22771,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C595" s="2" t="n">
@@ -22814,7 +22814,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C596" s="2" t="n">
@@ -22857,7 +22857,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C597" s="2" t="n">
@@ -22900,7 +22900,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C598" s="2" t="n">
@@ -22931,7 +22931,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C599" s="2" t="n">
@@ -22974,7 +22974,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C600" s="2" t="n">
@@ -23013,7 +23013,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C601" s="2" t="n">
@@ -23091,7 +23091,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C603" s="2" t="n">
@@ -23134,7 +23134,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C604" s="2" t="n">
@@ -23177,7 +23177,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C605" s="2" t="n">
@@ -23220,7 +23220,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C606" s="2" t="n">
@@ -23251,7 +23251,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C607" s="2" t="n">
@@ -23294,7 +23294,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C608" s="2" t="n">
@@ -23333,7 +23333,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C609" s="2" t="n">
@@ -23411,7 +23411,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C611" s="2" t="n">
@@ -23454,7 +23454,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C612" s="2" t="n">
@@ -23497,7 +23497,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C613" s="2" t="n">
@@ -23540,7 +23540,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C614" s="2" t="n">
@@ -23571,7 +23571,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C615" s="2" t="n">
@@ -23610,7 +23610,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C616" s="2" t="n">
@@ -23688,7 +23688,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C618" s="2" t="n">
@@ -23731,7 +23731,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C619" s="2" t="n">
@@ -23774,7 +23774,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C620" s="2" t="n">
@@ -23817,7 +23817,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C621" s="2" t="n">
@@ -23848,7 +23848,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C622" s="2" t="n">
@@ -23891,7 +23891,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C623" s="2" t="n">
@@ -23930,7 +23930,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C624" s="2" t="n">
@@ -24008,7 +24008,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C626" s="2" t="n">
@@ -24051,7 +24051,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C627" s="2" t="n">
@@ -24094,7 +24094,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C628" s="2" t="n">
@@ -24137,7 +24137,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C629" s="2" t="n">
@@ -24168,7 +24168,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C630" s="2" t="n">
@@ -24211,7 +24211,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C631" s="2" t="n">
@@ -24250,7 +24250,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C632" s="2" t="n">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C634" s="2" t="n">
@@ -24371,7 +24371,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C635" s="2" t="n">
@@ -24414,7 +24414,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C636" s="2" t="n">
@@ -24457,7 +24457,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C637" s="2" t="n">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C638" s="2" t="n">
@@ -24527,7 +24527,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C639" s="2" t="n">
@@ -24605,7 +24605,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C641" s="2" t="n">
@@ -24648,7 +24648,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C642" s="2" t="n">
@@ -24691,7 +24691,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C643" s="2" t="n">
@@ -24734,7 +24734,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C644" s="2" t="n">
@@ -24765,7 +24765,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C645" s="2" t="n">
@@ -24808,7 +24808,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C646" s="2" t="n">
@@ -24847,7 +24847,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C647" s="2" t="n">
@@ -24925,7 +24925,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C649" s="2" t="n">
@@ -24968,7 +24968,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C650" s="2" t="n">
@@ -25011,7 +25011,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C651" s="2" t="n">
@@ -25054,7 +25054,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C652" s="2" t="n">
@@ -25085,7 +25085,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C653" s="2" t="n">
@@ -25128,7 +25128,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C654" s="2" t="n">
@@ -25167,7 +25167,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C655" s="2" t="n">
@@ -25245,7 +25245,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C657" s="2" t="n">
@@ -25288,7 +25288,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C658" s="2" t="n">
@@ -25331,7 +25331,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C659" s="2" t="n">
@@ -25374,7 +25374,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C660" s="2" t="n">
@@ -25405,7 +25405,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C661" s="2" t="n">
@@ -25448,7 +25448,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C662" s="2" t="n">
@@ -25487,7 +25487,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C663" s="2" t="n">
@@ -25565,7 +25565,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C665" s="2" t="n">
@@ -25608,7 +25608,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C666" s="2" t="n">
@@ -25651,7 +25651,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C667" s="2" t="n">
@@ -25694,7 +25694,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C668" s="2" t="n">
@@ -25725,7 +25725,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C669" s="2" t="n">
@@ -25768,7 +25768,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C670" s="2" t="n">
@@ -25807,7 +25807,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C671" s="2" t="n">
@@ -25885,7 +25885,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C673" s="2" t="n">
@@ -25928,7 +25928,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C674" s="2" t="n">
@@ -25971,7 +25971,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C675" s="2" t="n">
@@ -26014,7 +26014,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C676" s="2" t="n">
@@ -26045,7 +26045,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C677" s="2" t="n">
@@ -26088,7 +26088,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C678" s="2" t="n">
@@ -26127,7 +26127,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C679" s="2" t="n">
@@ -26205,7 +26205,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C681" s="2" t="n">
@@ -26248,7 +26248,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C682" s="2" t="n">
@@ -26291,7 +26291,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C683" s="2" t="n">
@@ -26334,7 +26334,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C684" s="2" t="n">
@@ -26365,7 +26365,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C685" s="2" t="n">
@@ -26408,7 +26408,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C686" s="2" t="n">
@@ -26447,7 +26447,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C687" s="2" t="n">
@@ -26525,7 +26525,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C689" s="2" t="n">
@@ -26568,7 +26568,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C690" s="2" t="n">
@@ -26611,7 +26611,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C691" s="2" t="n">
@@ -26654,7 +26654,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C692" s="2" t="n">
@@ -26685,7 +26685,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C693" s="2" t="n">
@@ -26728,7 +26728,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C694" s="2" t="n">
@@ -26767,7 +26767,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C695" s="2" t="n">
@@ -26845,7 +26845,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C697" s="2" t="n">
@@ -26888,7 +26888,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C698" s="2" t="n">
@@ -26931,7 +26931,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C699" s="2" t="n">
@@ -26974,7 +26974,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C700" s="2" t="n">
@@ -27005,7 +27005,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C701" s="2" t="n">
@@ -27048,7 +27048,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C702" s="2" t="n">
@@ -27087,7 +27087,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C703" s="2" t="n">
@@ -27165,7 +27165,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C705" s="2" t="n">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C706" s="2" t="n">
@@ -27251,7 +27251,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C707" s="2" t="n">
@@ -27294,7 +27294,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C708" s="2" t="n">
@@ -27325,7 +27325,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C709" s="2" t="n">
@@ -27368,7 +27368,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C710" s="2" t="n">
@@ -27407,7 +27407,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C711" s="2" t="n">
@@ -27485,7 +27485,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C713" s="2" t="n">
@@ -27528,7 +27528,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C714" s="2" t="n">
@@ -27571,7 +27571,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C715" s="2" t="n">
@@ -27614,7 +27614,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C716" s="2" t="n">
@@ -27645,7 +27645,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C717" s="2" t="n">
@@ -27688,7 +27688,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C718" s="2" t="n">
@@ -27727,7 +27727,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C719" s="2" t="n">
@@ -27805,7 +27805,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C721" s="2" t="n">
@@ -27848,7 +27848,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C722" s="2" t="n">
@@ -27891,7 +27891,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C723" s="2" t="n">
@@ -27934,7 +27934,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C724" s="2" t="n">
@@ -27965,7 +27965,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C725" s="2" t="n">
@@ -28008,7 +28008,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C726" s="2" t="n">
@@ -28047,7 +28047,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C727" s="2" t="n">
@@ -28125,7 +28125,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C729" s="2" t="n">
@@ -28168,7 +28168,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C730" s="2" t="n">
@@ -28211,7 +28211,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C731" s="2" t="n">
@@ -28254,7 +28254,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C732" s="2" t="n">
@@ -28285,7 +28285,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C733" s="2" t="n">
@@ -28316,7 +28316,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C734" s="2" t="n">
@@ -28359,7 +28359,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C735" s="2" t="n">
@@ -28398,7 +28398,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C736" s="2" t="n">
@@ -28476,7 +28476,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C738" s="2" t="n">
@@ -28519,7 +28519,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C739" s="2" t="n">
@@ -28562,7 +28562,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C740" s="2" t="n">
@@ -28605,7 +28605,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C741" s="2" t="n">
@@ -28644,7 +28644,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C742" s="2" t="n">
@@ -28683,7 +28683,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C743" s="2" t="n">
@@ -28726,7 +28726,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C744" s="2" t="n">
@@ -28765,7 +28765,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C745" s="2" t="n">
@@ -28843,7 +28843,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C747" s="2" t="n">
@@ -28886,7 +28886,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C748" s="2" t="n">
@@ -28929,7 +28929,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C749" s="2" t="n">
@@ -28972,7 +28972,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C750" s="2" t="n">
@@ -29011,7 +29011,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C751" s="2" t="n">
@@ -29050,7 +29050,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C752" s="2" t="n">
@@ -29081,7 +29081,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C753" s="2" t="n">
@@ -29120,7 +29120,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C754" s="2" t="n">
@@ -29198,7 +29198,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C756" s="2" t="n">
@@ -29241,7 +29241,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C757" s="2" t="n">
@@ -29284,7 +29284,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C758" s="2" t="n">
@@ -29327,7 +29327,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C759" s="2" t="n">
@@ -29366,7 +29366,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C760" s="2" t="n">
@@ -29405,7 +29405,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C761" s="2" t="n">
@@ -29436,7 +29436,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C762" s="2" t="n">
@@ -29475,7 +29475,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C763" s="2" t="n">
@@ -29553,7 +29553,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C765" s="2" t="n">
@@ -29596,7 +29596,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C766" s="2" t="n">
@@ -29639,7 +29639,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C767" s="2" t="n">
@@ -29682,7 +29682,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C768" s="2" t="n">
@@ -29721,7 +29721,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C769" s="2" t="n">
@@ -29760,7 +29760,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C770" s="2" t="n">
@@ -29791,7 +29791,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C771" s="2" t="n">
@@ -29834,7 +29834,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C772" s="2" t="n">
@@ -29873,7 +29873,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C773" s="2" t="n">
@@ -29951,7 +29951,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C775" s="2" t="n">
@@ -29994,7 +29994,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C776" s="2" t="n">
@@ -30037,7 +30037,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C777" s="2" t="n">
@@ -30080,7 +30080,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C778" s="2" t="n">
@@ -30119,7 +30119,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C779" s="2" t="n">
@@ -30158,7 +30158,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C780" s="2" t="n">
@@ -30189,7 +30189,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C781" s="2" t="n">
@@ -30232,7 +30232,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C782" s="2" t="n">
@@ -30271,7 +30271,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C783" s="2" t="n">
@@ -30349,7 +30349,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C785" s="2" t="n">
@@ -30392,7 +30392,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C786" s="2" t="n">
@@ -30435,7 +30435,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C787" s="2" t="n">
@@ -30478,7 +30478,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C788" s="2" t="n">
@@ -30517,7 +30517,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C789" s="2" t="n">
@@ -30556,7 +30556,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C790" s="2" t="n">
@@ -30587,7 +30587,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C791" s="2" t="n">
@@ -30630,7 +30630,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C792" s="2" t="n">
@@ -30669,7 +30669,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C793" s="2" t="n">
@@ -30747,7 +30747,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C795" s="2" t="n">
@@ -30790,7 +30790,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C796" s="2" t="n">
@@ -30833,7 +30833,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C797" s="2" t="n">
@@ -30876,7 +30876,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C798" s="2" t="n">
@@ -30915,7 +30915,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C799" s="2" t="n">
@@ -30954,7 +30954,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C800" s="2" t="n">
@@ -30985,7 +30985,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C801" s="2" t="n">
@@ -31028,7 +31028,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C802" s="2" t="n">
@@ -31067,7 +31067,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C803" s="2" t="n">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C805" s="2" t="n">
@@ -31188,7 +31188,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C806" s="2" t="n">
@@ -31231,7 +31231,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C807" s="2" t="n">
@@ -31274,7 +31274,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C808" s="2" t="n">
@@ -31313,7 +31313,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C809" s="2" t="n">
@@ -31352,7 +31352,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C810" s="2" t="n">
@@ -31383,7 +31383,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C811" s="2" t="n">
@@ -31426,7 +31426,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C812" s="2" t="n">
@@ -31465,7 +31465,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C813" s="2" t="n">
@@ -31543,7 +31543,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C815" s="2" t="n">
@@ -31586,7 +31586,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C816" s="2" t="n">
@@ -31629,7 +31629,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C817" s="2" t="n">
@@ -31672,7 +31672,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C818" s="2" t="n">
@@ -31711,7 +31711,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C819" s="2" t="n">
@@ -31750,7 +31750,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C820" s="2" t="n">
@@ -31781,7 +31781,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C821" s="2" t="n">
@@ -31824,7 +31824,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C822" s="2" t="n">
@@ -31863,7 +31863,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C823" s="2" t="n">
@@ -31941,7 +31941,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C825" s="2" t="n">
@@ -31984,7 +31984,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C826" s="2" t="n">
@@ -32027,7 +32027,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C827" s="2" t="n">
@@ -32070,7 +32070,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C828" s="2" t="n">
@@ -32109,7 +32109,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C829" s="2" t="n">
@@ -32148,7 +32148,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C830" s="2" t="n">
@@ -32179,7 +32179,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C831" s="2" t="n">
@@ -32222,7 +32222,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C832" s="2" t="n">
@@ -32261,7 +32261,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C833" s="2" t="n">
@@ -32339,7 +32339,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C835" s="2" t="n">
@@ -32382,7 +32382,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C836" s="2" t="n">
@@ -32425,7 +32425,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C837" s="2" t="n">
@@ -32468,7 +32468,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C838" s="2" t="n">
@@ -32507,7 +32507,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C839" s="2" t="n">
@@ -32546,7 +32546,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C840" s="2" t="n">
@@ -32577,7 +32577,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C841" s="2" t="n">
@@ -32620,7 +32620,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C842" s="2" t="n">
@@ -32659,7 +32659,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C843" s="2" t="n">
@@ -32737,7 +32737,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C845" s="2" t="n">
@@ -32780,7 +32780,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C846" s="2" t="n">
@@ -32823,7 +32823,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C847" s="2" t="n">
@@ -32866,7 +32866,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C848" s="2" t="n">
@@ -32905,7 +32905,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C849" s="2" t="n">
@@ -32944,7 +32944,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C850" s="2" t="n">
@@ -32975,7 +32975,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C851" s="2" t="n">
@@ -33018,7 +33018,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C852" s="2" t="n">
@@ -33057,7 +33057,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C853" s="2" t="n">
@@ -33135,7 +33135,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C855" s="2" t="n">
@@ -33178,7 +33178,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C856" s="2" t="n">
@@ -33221,7 +33221,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C857" s="2" t="n">
@@ -33264,7 +33264,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C858" s="2" t="n">
@@ -33303,7 +33303,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C859" s="2" t="n">
@@ -33342,7 +33342,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C860" s="2" t="n">
@@ -33373,7 +33373,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C861" s="2" t="n">
@@ -33416,7 +33416,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C862" s="2" t="n">
@@ -33455,7 +33455,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C863" s="2" t="n">
@@ -33533,7 +33533,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C865" s="2" t="n">
@@ -33576,7 +33576,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C866" s="2" t="n">
@@ -33619,7 +33619,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C867" s="2" t="n">
@@ -33662,7 +33662,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C868" s="2" t="n">
@@ -33701,7 +33701,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C869" s="2" t="n">
@@ -33740,7 +33740,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C870" s="2" t="n">
@@ -33771,7 +33771,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C871" s="2" t="n">
@@ -33814,7 +33814,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C872" s="2" t="n">
@@ -33853,7 +33853,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C873" s="2" t="n">
@@ -33931,7 +33931,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C875" s="2" t="n">
@@ -33974,7 +33974,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C876" s="2" t="n">
@@ -34017,7 +34017,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C877" s="2" t="n">
@@ -34060,7 +34060,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C878" s="2" t="n">
@@ -34099,7 +34099,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C879" s="2" t="n">
@@ -34138,7 +34138,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C880" s="2" t="n">
@@ -34169,7 +34169,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C881" s="2" t="n">
@@ -34212,7 +34212,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C882" s="2" t="n">
@@ -34251,7 +34251,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C883" s="2" t="n">
@@ -34329,7 +34329,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C885" s="2" t="n">
@@ -34372,7 +34372,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C886" s="2" t="n">
@@ -34415,7 +34415,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C887" s="2" t="n">
@@ -34458,7 +34458,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C888" s="2" t="n">
@@ -34497,7 +34497,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C889" s="2" t="n">
@@ -34536,7 +34536,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C890" s="2" t="n">
@@ -34567,7 +34567,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C891" s="2" t="n">
@@ -34610,7 +34610,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C892" s="2" t="n">
@@ -34649,7 +34649,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C893" s="2" t="n">
@@ -34727,7 +34727,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C895" s="2" t="n">
@@ -34770,7 +34770,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C896" s="2" t="n">
@@ -34813,7 +34813,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C897" s="2" t="n">
@@ -34856,7 +34856,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C898" s="2" t="n">
@@ -34895,7 +34895,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C899" s="2" t="n">
@@ -34934,7 +34934,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C900" s="2" t="n">
@@ -34965,7 +34965,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C901" s="2" t="n">
@@ -34996,7 +34996,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C902" s="2" t="n">
@@ -35027,7 +35027,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C903" s="2" t="n">
@@ -35058,7 +35058,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C904" s="2" t="n">
@@ -35089,7 +35089,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C905" s="2" t="n">
@@ -35120,7 +35120,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C906" s="2" t="n">
@@ -35151,7 +35151,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C907" s="2" t="n">
@@ -35194,7 +35194,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C908" s="2" t="n">
@@ -35233,7 +35233,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C909" s="2" t="n">
@@ -35311,7 +35311,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C911" s="2" t="n">
@@ -35354,7 +35354,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C912" s="2" t="n">
@@ -35397,7 +35397,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C913" s="2" t="n">
@@ -35440,7 +35440,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C914" s="2" t="n">
@@ -35479,7 +35479,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C915" s="2" t="n">
@@ -35518,7 +35518,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C916" s="2" t="n">
@@ -35549,7 +35549,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C917" s="2" t="n">
@@ -35592,7 +35592,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C918" s="2" t="n">
@@ -35631,7 +35631,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C919" s="2" t="n">
@@ -35709,7 +35709,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C921" s="2" t="n">
@@ -35752,7 +35752,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C922" s="2" t="n">
@@ -35795,7 +35795,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C923" s="2" t="n">
@@ -35838,7 +35838,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C924" s="2" t="n">
@@ -35877,7 +35877,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C925" s="2" t="n">
@@ -35916,7 +35916,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C926" s="2" t="n">
@@ -35947,7 +35947,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C927" s="2" t="n">
@@ -35990,7 +35990,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C928" s="2" t="n">
@@ -36029,7 +36029,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C929" s="2" t="n">
@@ -36107,7 +36107,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C931" s="2" t="n">
@@ -36150,7 +36150,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C932" s="2" t="n">
@@ -36193,7 +36193,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C933" s="2" t="n">
@@ -36236,7 +36236,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C934" s="2" t="n">
@@ -36275,7 +36275,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C935" s="2" t="n">
@@ -36314,7 +36314,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C936" s="2" t="n">
@@ -36357,7 +36357,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C937" s="2" t="n">
@@ -36396,7 +36396,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C938" s="2" t="n">
@@ -36474,7 +36474,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C940" s="2" t="n">
@@ -36517,7 +36517,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C941" s="2" t="n">
@@ -36560,7 +36560,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C942" s="2" t="n">
@@ -36603,7 +36603,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C943" s="2" t="n">
@@ -36642,7 +36642,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C944" s="2" t="n">
@@ -36681,7 +36681,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C945" s="2" t="n">
@@ -36712,7 +36712,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C946" s="2" t="n">
@@ -36755,7 +36755,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C947" s="2" t="n">
@@ -36794,7 +36794,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C948" s="2" t="n">
@@ -36872,7 +36872,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C950" s="2" t="n">
@@ -36915,7 +36915,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C951" s="2" t="n">
@@ -36958,7 +36958,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C952" s="2" t="n">
@@ -37001,7 +37001,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C953" s="2" t="n">
@@ -37040,7 +37040,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C954" s="2" t="n">
@@ -37079,7 +37079,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C955" s="2" t="n">
@@ -37110,7 +37110,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C956" s="2" t="n">
@@ -37153,7 +37153,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C957" s="2" t="n">
@@ -37192,7 +37192,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C958" s="2" t="n">
@@ -37270,7 +37270,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C960" s="2" t="n">
@@ -37313,7 +37313,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C961" s="2" t="n">
@@ -37356,7 +37356,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C962" s="2" t="n">
@@ -37399,7 +37399,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C963" s="2" t="n">
@@ -37438,7 +37438,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C964" s="2" t="n">
@@ -37477,7 +37477,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C965" s="2" t="n">
@@ -37508,7 +37508,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C966" s="2" t="n">
@@ -37551,7 +37551,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C967" s="2" t="n">
@@ -37590,7 +37590,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C968" s="2" t="n">
@@ -37668,7 +37668,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C970" s="2" t="n">
@@ -37711,7 +37711,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C971" s="2" t="n">
@@ -37754,7 +37754,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C972" s="2" t="n">
@@ -37797,7 +37797,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C973" s="2" t="n">
@@ -37836,7 +37836,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C974" s="2" t="n">
@@ -37875,7 +37875,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C975" s="2" t="n">
@@ -37906,7 +37906,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C976" s="2" t="n">
@@ -37949,7 +37949,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C977" s="2" t="n">
@@ -37988,7 +37988,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C978" s="2" t="n">
@@ -38066,7 +38066,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C980" s="2" t="n">
@@ -38109,7 +38109,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C981" s="2" t="n">
@@ -38152,7 +38152,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C982" s="2" t="n">
@@ -38195,7 +38195,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C983" s="2" t="n">
@@ -38234,7 +38234,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C984" s="2" t="n">
@@ -38273,7 +38273,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C985" s="2" t="n">
@@ -38304,7 +38304,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C986" s="2" t="n">
@@ -38347,7 +38347,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C987" s="2" t="n">
@@ -38386,7 +38386,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C988" s="2" t="n">
@@ -38464,7 +38464,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C990" s="2" t="n">
@@ -38507,7 +38507,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C991" s="2" t="n">
@@ -38550,7 +38550,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C992" s="2" t="n">
@@ -38593,7 +38593,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C993" s="2" t="n">
@@ -38632,7 +38632,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C994" s="2" t="n">
@@ -38671,7 +38671,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C995" s="2" t="n">
@@ -38702,7 +38702,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C996" s="2" t="n">
@@ -38745,7 +38745,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C997" s="2" t="n">
@@ -38784,7 +38784,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C998" s="2" t="n">
@@ -38862,7 +38862,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C1000" s="2" t="n">
@@ -38905,7 +38905,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C1001" s="2" t="n">
@@ -38948,7 +38948,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C1002" s="2" t="n">
@@ -38991,7 +38991,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C1003" s="2" t="n">
@@ -39030,7 +39030,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C1004" s="2" t="n">
@@ -39069,7 +39069,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C1005" s="2" t="n">
@@ -39100,7 +39100,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C1006" s="2" t="n">
@@ -39143,7 +39143,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C1007" s="2" t="n">
@@ -39182,7 +39182,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C1008" s="2" t="n">
@@ -39260,7 +39260,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C1010" s="2" t="n">
@@ -39303,7 +39303,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C1011" s="2" t="n">
@@ -39346,7 +39346,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C1012" s="2" t="n">
@@ -39389,7 +39389,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C1013" s="2" t="n">
@@ -39428,7 +39428,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C1014" s="2" t="n">
